--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11100"/>
+    <workbookView windowWidth="28695" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -73,10 +73,61 @@
     <t>/Users/zhaochen/frp/frp_0.29.0_darwin_amd64/frpc.ini</t>
   </si>
   <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>118.190.53.214:33060</t>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>118.190.53.214:3386</t>
+  </si>
+  <si>
+    <t>imac /usr/local/mysql</t>
+  </si>
+  <si>
+    <t>/usr/local/mysql/bin</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>118.190.53.214:27817</t>
+  </si>
+  <si>
+    <t>imac /usr/local/Cellar/mongodb-community/4.2.0</t>
+  </si>
+  <si>
+    <t>/usr/local/Cellar/mongodb-community/4.2.0/bin</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>118.190.53.214:16379</t>
+  </si>
+  <si>
+    <t>imac /usr/local/Cellar/redis/5.0.6</t>
+  </si>
+  <si>
+    <t>/usr/local/Cellar/redis/5.0.6/bin</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>118.190.53.214:5682</t>
+  </si>
+  <si>
+    <t>imac /usr/local/Cellar/rabbitmq/3.7.9</t>
+  </si>
+  <si>
+    <t>/usr/local/Cellar/rabbitmq/3.7.9/sbin</t>
+  </si>
+  <si>
+    <t>RabbitMQ Web</t>
+  </si>
+  <si>
+    <t>118.190.53.214:15682</t>
+  </si>
+  <si>
+    <t>guest</t>
   </si>
 </sst>
 </file>
@@ -84,12 +135,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -105,6 +164,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -114,14 +224,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,25 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,74 +299,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,39 +500,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,6 +518,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,6 +538,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +568,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,152 +605,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,58 +759,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -771,7 +832,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1019,20 +1080,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="58.4732142857143" customWidth="1"/>
-    <col min="5" max="5" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="52.8583333333333" customWidth="1"/>
+    <col min="4" max="4" width="58.475" customWidth="1"/>
+    <col min="5" max="5" width="12.575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1100,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1111,22 +1173,92 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
+      </c>
+      <c r="F6">
+        <v>891122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="118.190.53.214:5682" tooltip="http://118.190.53.214:5682"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12450"/>
+    <workbookView windowWidth="22905" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>/usr/local/Cellar/mongodb-community/4.2.0/bin</t>
+  </si>
+  <si>
+    <t>zcmac</t>
   </si>
   <si>
     <t>Redis</t>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -156,14 +159,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -172,38 +219,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,53 +243,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,21 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -299,6 +278,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -309,25 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,157 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +503,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,6 +530,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -527,26 +563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,37 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,145 +611,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,7 +835,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1196,7 +1199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1209,47 +1212,56 @@
       <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>891122</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>891122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22905" windowHeight="7380"/>
+    <workbookView windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,6 +159,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -168,13 +228,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -183,12 +266,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,39 +288,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,68 +302,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -312,31 +312,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,151 +462,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,21 +516,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -545,11 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +549,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -589,17 +569,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,54 +769,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1083,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1091,13 +1091,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="52.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="58.475" customWidth="1"/>
-    <col min="5" max="5" width="12.575" customWidth="1"/>
+    <col min="3" max="3" width="52.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="58.4732142857143" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1165,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="18" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>guest</t>
+  </si>
+  <si>
+    <t>代码路径：</t>
+  </si>
+  <si>
+    <t>https://github.com/micezhao/fit-eat.git</t>
+  </si>
+  <si>
+    <t>配置仓库：</t>
+  </si>
+  <si>
+    <t>https://github.com/micezhao/config-fit.git</t>
   </si>
 </sst>
 </file>
@@ -159,6 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -167,61 +187,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,14 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,39 +294,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +307,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -312,25 +324,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,61 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,91 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +528,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -526,6 +568,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,56 +611,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -608,94 +620,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,56 +716,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1264,12 +1279,29 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" display="118.190.53.214:5682" tooltip="http://118.190.53.214:5682"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://github.com/micezhao/fit-eat.git"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>https://github.com/micezhao/config-fit.git</t>
+  </si>
+  <si>
+    <t>注册中心：http://118.190.53.214:8761</t>
+  </si>
+  <si>
+    <t>配置中心：http://118.190.53.214:8762</t>
   </si>
 </sst>
 </file>
@@ -150,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,6 +193,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -200,15 +213,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -216,41 +283,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,53 +300,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,43 +330,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,139 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,47 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,17 +546,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -607,11 +566,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,124 +626,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,19 +752,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1100,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1295,6 +1301,16 @@
         <v>42</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -109,7 +109,7 @@
     <t>imac /usr/local/Cellar/redis/5.0.6</t>
   </si>
   <si>
-    <t>/usr/local/Cellar/redis/5.0.6/bin</t>
+    <t>/usr/local/etc/redis.conf</t>
   </si>
   <si>
     <t>RabbitMQ</t>
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -193,44 +193,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -245,6 +230,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -253,6 +245,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -261,6 +268,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -269,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,30 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,9 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,31 +330,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,127 +432,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,18 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,124 +626,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,19 +752,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView windowWidth="21420" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -94,6 +94,11 @@
     <t>imac /usr/local/Cellar/mongodb-community/4.2.0</t>
   </si>
   <si>
+    <t>/usr/local/Cellar/mongodb-community/4.2.0/bin mongodb配置文件存放在/usr/local/etc/mongod.conf 
+mongo的数据存放在 /var/lib/data/db 
+日志地址：/usr/local/var/log/mongodb/output.log</t>
+  </si>
+  <si>
     <t>zcmac</t>
   </si>
   <si>
@@ -148,15 +153,26 @@
     <t>配置中心：http://118.190.53.214:8762</t>
   </si>
   <si>
-    <t>/usr/local/Cellar/mongodb-community/4.2.0/bin mongodb配置文件存放在/usr/local/etc/mongod.conf mongo的数据存放在 /var/lib/data/db</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>mongo启动命令：</t>
+  </si>
+  <si>
+    <t>先进入/usr/local/Cellar/mongodb-community/4.2.0/bin</t>
+  </si>
+  <si>
+    <t>./mongod -dbpath=/var/lib/data/db -logpath=/usr/local/var/log/mongodb/output.log -logappend -fork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,21 +196,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,18 +542,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -221,18 +803,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -494,39 +1125,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="58.5" customWidth="1"/>
+    <col min="4" max="4" width="129.258928571429" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -566,7 +1197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -580,18 +1211,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" ht="18" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -614,106 +1245,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" ht="47" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>891122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>891122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" tooltip="http://118.190.53.214:5682"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1" display="118.190.53.214:5682" tooltip="http://118.190.53.214:5682"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://github.com/micezhao/fit-eat.git"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="11880"/>
+    <workbookView windowWidth="25900" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>./mongod -dbpath=/var/lib/data/db -logpath=/usr/local/var/log/mongodb/output.log -logappend -fork</t>
+  </si>
+  <si>
+    <t>imac 登录：ssh zhaochen@118.190.53.214 -p 6000</t>
   </si>
 </sst>
 </file>
@@ -167,9 +170,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -205,16 +208,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,21 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -264,6 +275,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -272,6 +290,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -281,15 +307,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,44 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +543,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,6 +586,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,158 +643,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,22 +774,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1350,6 +1353,11 @@
       </c>
       <c r="B19" s="6"/>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25900" windowHeight="11240"/>
+    <workbookView windowHeight="23360" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="服务配置清单" sheetId="1" r:id="rId1"/>
+    <sheet name="调试地址列表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -163,6 +164,39 @@
   </si>
   <si>
     <t>imac 登录：ssh zhaochen@118.190.53.214 -p 6000</t>
+  </si>
+  <si>
+    <t>调试地址列表</t>
+  </si>
+  <si>
+    <t>系统名</t>
+  </si>
+  <si>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">功能 </t>
+  </si>
+  <si>
+    <t>请求(方式)地址</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>用户系统</t>
+  </si>
+  <si>
+    <t>118.119.53.214:8708</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>get:  /login/authCode</t>
+  </si>
+  <si>
+    <t>{"loginType":"wx"}</t>
   </si>
 </sst>
 </file>
@@ -171,29 +205,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,8 +221,30 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="黑体-简"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,24 +256,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,16 +293,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,9 +326,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,69 +362,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +393,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,6 +417,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,19 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,121 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,10 +598,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -581,20 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,17 +674,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,171 +689,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,8 +1186,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1150,15 +1200,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -1218,7 +1268,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -1252,13 +1302,13 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1272,7 +1322,7 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -1317,7 +1367,7 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1351,7 +1401,7 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
@@ -1369,4 +1419,74 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.1339285714286" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -181,6 +181,9 @@
     <t>请求(方式)地址</t>
   </si>
   <si>
+    <t>请求体</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -190,13 +193,97 @@
     <t>118.119.53.214:8708</t>
   </si>
   <si>
+    <t>获取第三方openid</t>
+  </si>
+  <si>
+    <t>get:  /login/authCode</t>
+  </si>
+  <si>
+    <t>{"loginType":"wx"}</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>post: /login/registerByThird</t>
+  </si>
+  <si>
+    <t>{
+ "loginType":"ali",
+ "code":"a1969799610n9KJld1253810485saUIso-1380166051md9Xf5Sn-LU"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loginType必选项-可选值：wx/ali      </t>
+  </si>
+  <si>
+    <t>code:第三方openid</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
-    <t>get:  /login/authCode</t>
-  </si>
-  <si>
-    <t>{"loginType":"wx"}</t>
+    <t>post: /login/thirdPart/{loginType}/{三方id}</t>
+  </si>
+  <si>
+    <t>绑定手机号</t>
+  </si>
+  <si>
+    <t>post: /login/binding</t>
+  </si>
+  <si>
+    <t>{
+ "mobile":"15366552233"
+}</t>
+  </si>
+  <si>
+    <t>mobile:必选项 - 11位手机号码</t>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+  </si>
+  <si>
+    <t>put: /user/userinfo</t>
+  </si>
+  <si>
+    <t>{
+ "realname":"sliva",
+ "mobile":"13357576363",
+ "age":18,
+ "gender":"男",
+ "nickname":"",
+ "headimgUrl":""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realname:真实姓名 </t>
+  </si>
+  <si>
+    <t>mobile：使用手机号码</t>
+  </si>
+  <si>
+    <r>
+      <t>age:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年龄，生否设置出生年月框计算年龄</t>
+    </r>
+  </si>
+  <si>
+    <t>gender:性别 男/女</t>
+  </si>
+  <si>
+    <t>nickname:昵称</t>
+  </si>
+  <si>
+    <t>headimgUrl：是否调用微信原生上传头像</t>
   </si>
 </sst>
 </file>
@@ -204,12 +291,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +312,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -249,7 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +357,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,18 +401,57 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,53 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,28 +477,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,13 +487,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,169 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,8 +684,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,26 +699,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,21 +725,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,157 +754,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,74 +942,77 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1182,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1190,25 +1287,25 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="129.258928571429" customWidth="1"/>
+    <col min="4" max="4" width="129.258333333333" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -1264,11 +1361,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -1298,17 +1395,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="47" spans="1:6">
+    <row r="7" ht="38.25" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1322,7 +1419,7 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -1367,7 +1464,7 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1401,7 +1498,7 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
@@ -1422,21 +1519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="21.1339285714286" customWidth="1"/>
-    <col min="3" max="3" width="14.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="20.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="10.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="66.125" customWidth="1"/>
+    <col min="5" max="5" width="17.8583333333333" customWidth="1"/>
+    <col min="6" max="6" width="35.375" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1448,7 +1548,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -1464,22 +1564,93 @@
       <c r="E2" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" ht="18" spans="1:5">
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="156.75" spans="3:7">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" ht="71.25" spans="3:6">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" ht="171" spans="3:16">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28060" windowHeight="13240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -190,7 +190,7 @@
     <t>用户系统</t>
   </si>
   <si>
-    <t>118.119.53.214:8708</t>
+    <t>118.190.53.214:8708</t>
   </si>
   <si>
     <t>获取第三方openid</t>
@@ -263,6 +263,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>age:</t>
     </r>
     <r>
@@ -271,7 +276,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>年龄，生否设置出生年月框计算年龄</t>
     </r>
@@ -291,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -343,6 +347,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -351,20 +362,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,14 +376,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +390,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -408,6 +405,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -423,9 +467,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,45 +481,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -487,145 +491,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,36 +672,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,8 +688,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +742,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,21 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -754,181 +782,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,9 +945,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -956,7 +957,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -965,54 +966,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1279,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1287,12 +1288,12 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="129.258333333333" customWidth="1"/>
+    <col min="4" max="4" width="129.258928571429" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="18" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1395,17 +1396,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="1:6">
+    <row r="7" ht="47" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -1419,7 +1420,7 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -1464,7 +1465,7 @@
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1498,7 +1499,7 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
@@ -1519,21 +1520,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="21.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.1339285714286" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="66.125" customWidth="1"/>
-    <col min="5" max="5" width="17.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="35.375" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -1568,7 +1569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:5">
+    <row r="3" ht="18" spans="1:5">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1585,14 +1586,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="156.75" spans="3:7">
+    <row r="4" ht="159" spans="3:7">
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F4" t="s">
@@ -1610,28 +1611,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="3:6">
+    <row r="6" ht="88" spans="3:6">
       <c r="C6" t="s">
         <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" ht="171" spans="3:16">
+    <row r="7" ht="194" spans="3:16">
       <c r="C7" t="s">
         <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F7" t="s">
@@ -1640,7 +1641,7 @@
       <c r="G7" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
       <c r="L7" t="s">
@@ -1649,7 +1650,7 @@
       <c r="N7" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>80</v>
       </c>
     </row>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -196,10 +196,7 @@
     <t>获取第三方openid</t>
   </si>
   <si>
-    <t>get:  /login/authCode</t>
-  </si>
-  <si>
-    <t>{"loginType":"wx"}</t>
+    <t>get:  /login/authCode/{code}/{loginType}</t>
   </si>
   <si>
     <t>注册</t>
@@ -1525,16 +1522,16 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="16.8125" customWidth="1"/>
     <col min="2" max="2" width="21.1339285714286" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="66.125" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="22.9107142857143" customWidth="1"/>
     <col min="6" max="6" width="35.375" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -1569,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1582,76 +1579,74 @@
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="159" spans="3:7">
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" ht="88" spans="3:6">
       <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
         <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" ht="194" spans="3:16">
       <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13240" activeTab="1"/>
+    <workbookView windowWidth="28060" windowHeight="15460"/>
   </bookViews>
   <sheets>
-    <sheet name="服务配置清单" sheetId="1" r:id="rId1"/>
-    <sheet name="调试地址列表" sheetId="2" r:id="rId2"/>
+    <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
+    <sheet name="服务配置清单（2020-06-25过期） (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="调试地址列表" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -44,18 +46,66 @@
     <t>阿里云</t>
   </si>
   <si>
+    <t>39.100.131.79:22</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Rootjxh1988</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>/usr/local/jdk/jdk1.8.0_251</t>
+  </si>
+  <si>
+    <t>frps</t>
+  </si>
+  <si>
+    <t>frpc</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>RabbitMQ Web</t>
+  </si>
+  <si>
+    <t>代码路径：</t>
+  </si>
+  <si>
+    <t>https://github.com/micezhao/fit-eat.git</t>
+  </si>
+  <si>
+    <t>配置仓库：</t>
+  </si>
+  <si>
+    <t>https://github.com/micezhao/config-fit.git</t>
+  </si>
+  <si>
+    <t>注册中心：</t>
+  </si>
+  <si>
+    <t>配置中心：</t>
+  </si>
+  <si>
     <t>118.190.53.214:22</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>Zc881017</t>
   </si>
   <si>
-    <t>frps</t>
-  </si>
-  <si>
     <t>118.190.53.214:7000</t>
   </si>
   <si>
@@ -65,18 +115,12 @@
     <t>/root/frp/frp_0.29.0_linux_amd64/frps.ini</t>
   </si>
   <si>
-    <t>frpc</t>
-  </si>
-  <si>
     <t>imac /Users/zhaochen/frp/frp_0.29.0_darwin_amd64</t>
   </si>
   <si>
     <t>/Users/zhaochen/frp/frp_0.29.0_darwin_amd64/frpc.ini</t>
   </si>
   <si>
-    <t>MySQL</t>
-  </si>
-  <si>
     <t>118.190.53.214:3386</t>
   </si>
   <si>
@@ -84,9 +128,6 @@
   </si>
   <si>
     <t>/usr/local/mysql/bin</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
   </si>
   <si>
     <t>118.190.53.214:27817</t>
@@ -103,9 +144,6 @@
     <t>zcmac</t>
   </si>
   <si>
-    <t>Redis</t>
-  </si>
-  <si>
     <t>118.190.53.214:16379</t>
   </si>
   <si>
@@ -115,9 +153,6 @@
     <t>/usr/local/etc/redis.conf</t>
   </si>
   <si>
-    <t>RabbitMQ</t>
-  </si>
-  <si>
     <t>118.190.53.214:5682</t>
   </si>
   <si>
@@ -127,25 +162,10 @@
     <t>/usr/local/Cellar/rabbitmq/3.7.9/sbin</t>
   </si>
   <si>
-    <t>RabbitMQ Web</t>
-  </si>
-  <si>
     <t>118.190.53.214:15682</t>
   </si>
   <si>
     <t>guest</t>
-  </si>
-  <si>
-    <t>代码路径：</t>
-  </si>
-  <si>
-    <t>https://github.com/micezhao/fit-eat.git</t>
-  </si>
-  <si>
-    <t>配置仓库：</t>
-  </si>
-  <si>
-    <t>https://github.com/micezhao/config-fit.git</t>
   </si>
   <si>
     <t>注册中心：http://118.190.53.214:8761</t>
@@ -263,6 +283,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>age:</t>
@@ -292,12 +313,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +364,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -351,14 +379,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,8 +400,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,17 +470,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,29 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -450,33 +494,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -488,187 +528,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,41 +740,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,13 +781,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,124 +824,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,26 +950,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +998,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,6 +1322,165 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="4" max="4" width="19.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
@@ -1333,13 +1535,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1347,41 +1549,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1395,19 +1597,19 @@
     </row>
     <row r="7" ht="47" spans="1:6">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1415,16 +1617,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1432,75 +1634,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1516,12 +1718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1741,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1548,105 +1750,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="159" spans="3:7">
+    <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" ht="88" spans="3:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" ht="194" spans="3:16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1656,4 +1858,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="15460"/>
+    <workbookView windowWidth="29920" windowHeight="22480"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Redis</t>
+  </si>
+  <si>
+    <t>39.100.131.79:6379
+service redis_6379 start/stop</t>
+  </si>
+  <si>
+    <t>/usr/local/redis/redis-4.0.9/
+安装说明：https://www.cnblogs.com/lywJ/p/10697460.html</t>
+  </si>
+  <si>
+    <t>Config file    : /etc/redis/6379.conf
+Log file       : /var/log/redis_6379.log
+Data dir       : /var/lib/redis/6379
+Executable     : /usr/local/bin/redis-server
+Cli Executable : /usr/local/bin/redis-cli</t>
+  </si>
+  <si>
+    <t>jxh1988</t>
   </si>
   <si>
     <t>RabbitMQ</t>
@@ -313,12 +331,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,22 +389,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,14 +413,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,9 +449,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,39 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,28 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -528,37 +553,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,145 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,28 +750,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,6 +786,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -777,6 +806,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,24 +836,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,152 +849,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1026,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1333,9 +1364,10 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="19.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="48.2142857142857" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1418,49 +1450,65 @@
         <v>17</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" ht="88" spans="1:6">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" ht="20" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" ht="20" spans="4:4">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" ht="20" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -1535,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1552,13 +1600,13 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1566,10 +1614,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1577,13 +1625,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1600,16 +1648,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1620,13 +1668,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1634,75 +1682,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1789,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1750,105 +1798,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="15460"/>
+    <workbookView windowWidth="28060" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>zcmac</t>
+  </si>
+  <si>
+    <t>MongoDB shell version v3.4.24</t>
   </si>
   <si>
     <t>118.190.53.214:16379</t>
@@ -313,12 +316,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +367,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -378,15 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +404,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,23 +473,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,74 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -534,181 +544,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +750,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -761,21 +786,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -824,124 +834,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,23 +963,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1011,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,7 +1337,7 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1393,7 +1406,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1418,7 +1431,6 @@
         <v>17</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:2">
@@ -1483,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1595,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="47" spans="1:6">
+    <row r="7" ht="47" spans="1:7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1613,6 +1625,9 @@
       </c>
       <c r="F7">
         <v>891122</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1620,13 +1635,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1637,13 +1652,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1651,13 +1666,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1678,31 +1693,31 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1756,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1750,105 +1765,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13200" activeTab="1"/>
+    <workbookView windowWidth="28060" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>zcmac</t>
-  </si>
-  <si>
-    <t>MongoDB shell version v3.4.24</t>
   </si>
   <si>
     <t>118.190.53.214:16379</t>
@@ -316,12 +313,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,13 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.25"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -385,6 +375,51 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,22 +432,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +463,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -434,14 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -449,29 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -479,44 +507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -544,13 +534,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,19 +660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,139 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,21 +740,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -786,6 +761,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -834,124 +824,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,23 +953,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,9 +1001,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,7 +1324,7 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1406,7 +1393,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1431,6 +1418,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="6"/>
+      <c r="C8"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:2">
@@ -1495,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1607,7 +1595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="47" spans="1:7">
+    <row r="7" ht="47" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1625,9 +1613,6 @@
       </c>
       <c r="F7">
         <v>891122</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1635,13 +1620,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1652,13 +1637,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1666,13 +1651,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1693,31 +1678,31 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1741,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1765,105 +1750,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
         <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="15460"/>
+    <workbookView windowWidth="28060" windowHeight="13240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
-    <sheet name="服务配置清单（2020-06-25过期） (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="调试地址列表" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="服务配置清单" sheetId="1" r:id="rId1"/>
+    <sheet name="调试地址列表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -46,88 +44,49 @@
     <t>阿里云</t>
   </si>
   <si>
-    <t>39.100.131.79:22</t>
+    <t>118.190.53.214:22</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>Rootjxh1988</t>
-  </si>
-  <si>
-    <t>JDK</t>
-  </si>
-  <si>
-    <t>/usr/local/jdk/jdk1.8.0_251</t>
+    <t>Zc881017</t>
   </si>
   <si>
     <t>frps</t>
   </si>
   <si>
+    <t>118.190.53.214:7000</t>
+  </si>
+  <si>
+    <t>阿里云 /root/frp</t>
+  </si>
+  <si>
+    <t>/root/frp/frp_0.29.0_linux_amd64/frps.ini</t>
+  </si>
+  <si>
     <t>frpc</t>
   </si>
   <si>
+    <t>imac /Users/zhaochen/frp/frp_0.29.0_darwin_amd64</t>
+  </si>
+  <si>
+    <t>/Users/zhaochen/frp/frp_0.29.0_darwin_amd64/frpc.ini</t>
+  </si>
+  <si>
     <t>MySQL</t>
   </si>
   <si>
+    <t>118.190.53.214:3386</t>
+  </si>
+  <si>
+    <t>imac /usr/local/mysql</t>
+  </si>
+  <si>
+    <t>/usr/local/mysql/bin</t>
+  </si>
+  <si>
     <t>MongoDB</t>
-  </si>
-  <si>
-    <t>Redis</t>
-  </si>
-  <si>
-    <t>RabbitMQ</t>
-  </si>
-  <si>
-    <t>RabbitMQ Web</t>
-  </si>
-  <si>
-    <t>代码路径：</t>
-  </si>
-  <si>
-    <t>https://github.com/micezhao/fit-eat.git</t>
-  </si>
-  <si>
-    <t>配置仓库：</t>
-  </si>
-  <si>
-    <t>https://github.com/micezhao/config-fit.git</t>
-  </si>
-  <si>
-    <t>注册中心：</t>
-  </si>
-  <si>
-    <t>配置中心：</t>
-  </si>
-  <si>
-    <t>118.190.53.214:22</t>
-  </si>
-  <si>
-    <t>Zc881017</t>
-  </si>
-  <si>
-    <t>118.190.53.214:7000</t>
-  </si>
-  <si>
-    <t>阿里云 /root/frp</t>
-  </si>
-  <si>
-    <t>/root/frp/frp_0.29.0_linux_amd64/frps.ini</t>
-  </si>
-  <si>
-    <t>imac /Users/zhaochen/frp/frp_0.29.0_darwin_amd64</t>
-  </si>
-  <si>
-    <t>/Users/zhaochen/frp/frp_0.29.0_darwin_amd64/frpc.ini</t>
-  </si>
-  <si>
-    <t>118.190.53.214:3386</t>
-  </si>
-  <si>
-    <t>imac /usr/local/mysql</t>
-  </si>
-  <si>
-    <t>/usr/local/mysql/bin</t>
   </si>
   <si>
     <t>118.190.53.214:27817</t>
@@ -144,6 +103,9 @@
     <t>zcmac</t>
   </si>
   <si>
+    <t>Redis</t>
+  </si>
+  <si>
     <t>118.190.53.214:16379</t>
   </si>
   <si>
@@ -153,6 +115,9 @@
     <t>/usr/local/etc/redis.conf</t>
   </si>
   <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
     <t>118.190.53.214:5682</t>
   </si>
   <si>
@@ -162,10 +127,25 @@
     <t>/usr/local/Cellar/rabbitmq/3.7.9/sbin</t>
   </si>
   <si>
+    <t>RabbitMQ Web</t>
+  </si>
+  <si>
     <t>118.190.53.214:15682</t>
   </si>
   <si>
     <t>guest</t>
+  </si>
+  <si>
+    <t>代码路径：</t>
+  </si>
+  <si>
+    <t>https://github.com/micezhao/fit-eat.git</t>
+  </si>
+  <si>
+    <t>配置仓库：</t>
+  </si>
+  <si>
+    <t>https://github.com/micezhao/config-fit.git</t>
   </si>
   <si>
     <t>注册中心：http://118.190.53.214:8761</t>
@@ -283,7 +263,6 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>age:</t>
@@ -313,12 +292,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,13 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -379,14 +351,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +372,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,117 +478,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -528,25 +488,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,157 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,13 +700,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,41 +769,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,152 +784,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +958,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,165 +1279,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="19.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
@@ -1535,13 +1333,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1549,41 +1347,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1597,19 +1395,19 @@
     </row>
     <row r="7" ht="47" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1617,16 +1415,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1634,75 +1432,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1718,12 +1516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1741,7 +1539,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1750,105 +1548,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="159" spans="3:7">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G4" t="s">
         <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="141" spans="3:7">
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" ht="88" spans="3:6">
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" ht="194" spans="3:16">
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" ht="53" spans="3:6">
-      <c r="C6" t="s">
+      <c r="E7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F7" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G7" t="s">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H7" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" ht="141" spans="3:16">
-      <c r="C7" t="s">
+      <c r="L7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="N7" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="P7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1858,20 +1656,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -49,6 +49,9 @@
     <t>39.100.131.79:22</t>
   </si>
   <si>
+    <t>控制台登录 账号/密码：jixinghao1988/jixinghao1988</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
@@ -70,7 +73,27 @@
     <t>MySQL</t>
   </si>
   <si>
+    <t>39.100.131.79:3306</t>
+  </si>
+  <si>
+    <t>/etc/my.cnf.d/client.cnf                                                                                                                                          
+/etc/my.cnf.d/mysql-default-authentication-plugin.cnf
+/etc/my.cnf.d/mysql-server.cnf</t>
+  </si>
+  <si>
+    <t>jxh1988</t>
+  </si>
+  <si>
     <t>MongoDB</t>
+  </si>
+  <si>
+    <t>fit-eat：jxh</t>
+  </si>
+  <si>
+    <t>fit-eat：jxh1988</t>
+  </si>
+  <si>
+    <t>readWrite</t>
   </si>
   <si>
     <t>Redis</t>
@@ -91,15 +114,21 @@
 Cli Executable : /usr/local/bin/redis-cli</t>
   </si>
   <si>
-    <t>jxh1988</t>
-  </si>
-  <si>
     <t>RabbitMQ</t>
   </si>
   <si>
+    <t>39.100.131.79:5672</t>
+  </si>
+  <si>
     <t>RabbitMQ Web</t>
   </si>
   <si>
+    <t>39.100.131.79:15672</t>
+  </si>
+  <si>
+    <t>jxh</t>
+  </si>
+  <si>
     <t>代码路径：</t>
   </si>
   <si>
@@ -115,7 +144,13 @@
     <t>注册中心：</t>
   </si>
   <si>
+    <t>http://39.100.131.79:8761</t>
+  </si>
+  <si>
     <t>配置中心：</t>
+  </si>
+  <si>
+    <t>http://39.100.131.79:8762</t>
   </si>
   <si>
     <t>118.190.53.214:22</t>
@@ -331,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -397,7 +432,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,6 +453,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -420,14 +538,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,55 +553,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,37 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -553,150 +588,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -704,36 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +785,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -757,31 +801,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,8 +818,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,30 +841,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -844,129 +849,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,22 +1010,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1364,9 +1399,9 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="48.2142857142857" customWidth="1"/>
+    <col min="4" max="4" width="52.2232142857143" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="16.3571428571429" customWidth="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1411,104 +1446,151 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="53" spans="1:7">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="7"/>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="88" spans="1:6">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="20" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" ht="20" spans="1:4">
+    <row r="11" ht="20" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="12"/>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="20" spans="4:4">
       <c r="D12" s="12"/>
     </row>
     <row r="13" ht="20" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -1520,6 +1602,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
+    <hyperlink ref="B16" r:id="rId2" display="http://39.100.131.79:8761"/>
+    <hyperlink ref="B17" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1583,81 +1667,81 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>891122</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="47" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1665,16 +1749,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1682,75 +1766,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1873,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1798,105 +1882,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="22480"/>
+    <workbookView windowWidth="28060" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>jxh</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>/home/opt/apache-maven-3.6.3</t>
+  </si>
+  <si>
+    <t>/home/opt/apache-maven-3.6.3/conf</t>
   </si>
   <si>
     <t>代码路径：</t>
@@ -366,12 +375,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,15 +440,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.25"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +531,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,82 +568,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -552,14 +576,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -588,13 +604,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,169 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,20 +798,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,22 +862,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,32 +887,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,124 +900,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,26 +1026,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1083,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1557,53 +1576,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="20" spans="4:4">
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" ht="20" spans="1:4">
-      <c r="A13" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="4:4">
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" ht="20" spans="1:4">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
-    <hyperlink ref="B16" r:id="rId2" display="http://39.100.131.79:8761"/>
-    <hyperlink ref="B17" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
+    <hyperlink ref="B17" r:id="rId2" display="http://39.100.131.79:8761"/>
+    <hyperlink ref="B18" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1667,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1684,13 +1714,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1698,10 +1728,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1709,13 +1739,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1732,16 +1762,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1752,13 +1782,13 @@
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1769,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1783,58 +1813,58 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1882,105 +1912,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13280"/>
+    <workbookView windowWidth="28060" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>/home/opt/apache-maven-3.6.3/conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomcat </t>
+  </si>
+  <si>
+    <t>默认端口 8080
+1、修改Tomcat的Server.xml，在Connector标签中加上URLEncoding参数：
+2、在bin/catalina.sh 
+首行加入JAVA_OPTS=-Djava.security.egd=file:/dev/./urandom</t>
+  </si>
+  <si>
+    <t>/home/opt/apache-tomcat-8.5.56</t>
+  </si>
+  <si>
+    <t>/home/opt/apache-tomcat-8.5.56/conf</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>/usr/local/git</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>39.100.131.79:8001</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/jenkins   日志地址：/var/log/jenkins/jenkins.log</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>32207161082d4c44b704e34c30df454a</t>
   </si>
   <si>
     <t>代码路径：</t>
@@ -375,12 +411,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +483,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -455,7 +512,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,8 +556,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,39 +589,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,17 +612,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,36 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -604,19 +654,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,163 +786,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,6 +845,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,21 +888,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -867,6 +911,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -886,166 +945,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1136,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,20 +1463,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="50.3303571428571" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="52.2232142857143" customWidth="1"/>
+    <col min="4" max="4" width="56.0178571428571" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.3571428571429" customWidth="1"/>
+    <col min="6" max="6" width="25.7857142857143" customWidth="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1587,53 +1643,90 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="20" spans="4:4">
-      <c r="D13" s="12"/>
+    <row r="13" ht="72" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" ht="20" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:4">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
-    <hyperlink ref="B17" r:id="rId2" display="http://39.100.131.79:8761"/>
-    <hyperlink ref="B18" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
+    <hyperlink ref="B16" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
+    <hyperlink ref="B19" r:id="rId2" display="http://39.100.131.79:8761"/>
+    <hyperlink ref="B20" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1697,13 +1790,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1714,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1728,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1739,13 +1832,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1762,16 +1855,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1782,13 +1875,13 @@
         <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1799,13 +1892,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1813,58 +1906,58 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1996,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1912,105 +2005,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11840"/>
+    <workbookView windowWidth="28060" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>MongoDB</t>
+  </si>
+  <si>
+    <t>39.100.131.79:27017</t>
   </si>
   <si>
     <t>fit-eat：jxh</t>
@@ -413,8 +416,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -498,6 +501,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -511,22 +521,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,19 +599,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,55 +622,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,14 +636,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -660,181 +663,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,56 +860,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,7 +888,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,129 +918,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,22 +1079,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1465,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1578,31 +1581,31 @@
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="88" spans="1:6">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1610,23 +1613,23 @@
     </row>
     <row r="10" ht="20" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" ht="20" spans="1:6">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1634,86 +1637,86 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="72" spans="1:4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="20" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="20" spans="1:4">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -1790,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1807,13 +1810,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1821,10 +1824,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1832,13 +1835,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1855,16 +1858,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1872,16 +1875,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1889,75 +1892,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2005,105 +2008,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="14100"/>
+    <workbookView windowWidth="29920" windowHeight="22480"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>MongoDB</t>
-  </si>
-  <si>
-    <t>39.100.131.79:27017</t>
   </si>
   <si>
     <t>fit-eat：jxh</t>
@@ -414,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -507,20 +504,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -529,10 +512,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,26 +573,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,7 +589,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,43 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -657,13 +654,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,61 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,103 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +866,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -880,41 +886,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,129 +919,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,19 +1076,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1468,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1581,31 +1578,31 @@
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" ht="88" spans="1:6">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1613,23 +1610,23 @@
     </row>
     <row r="10" ht="20" spans="1:4">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="12"/>
     </row>
     <row r="11" ht="20" spans="1:6">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1637,86 +1634,86 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" ht="72" spans="1:4">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" ht="20" spans="1:4">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" ht="20" spans="1:4">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -1793,13 +1790,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1810,13 +1807,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1824,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1835,13 +1832,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1858,16 +1855,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1875,16 +1872,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1892,75 +1889,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1996,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2008,105 +2005,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
         <v>107</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" t="s">
         <v>109</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>110</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="L7" t="s">
         <v>112</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>113</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="22480"/>
+    <workbookView windowWidth="29100" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -67,7 +67,19 @@
     <t>frps</t>
   </si>
   <si>
+    <t>39.100.131.79:7000</t>
+  </si>
+  <si>
+    <t>/software/frp</t>
+  </si>
+  <si>
     <t>frpc</t>
+  </si>
+  <si>
+    <t>39.100.131.79:8708</t>
+  </si>
+  <si>
+    <t>目标机器存放地址</t>
   </si>
   <si>
     <t>MySQL</t>
@@ -85,6 +97,9 @@
   </si>
   <si>
     <t>MongoDB</t>
+  </si>
+  <si>
+    <t>39.100.131.79:27017</t>
   </si>
   <si>
     <t>fit-eat：jxh</t>
@@ -412,8 +427,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -498,9 +513,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,28 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -541,18 +586,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,9 +602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,20 +625,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -610,13 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,11 +641,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,13 +669,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,37 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,127 +795,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,29 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,17 +893,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,148 +965,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,7 +1135,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1147,54 +1162,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1461,23 +1476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="50.3303571428571" customWidth="1"/>
+    <col min="2" max="2" width="50.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="56.0178571428571" customWidth="1"/>
+    <col min="4" max="4" width="56.0166666666667" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="25.7857142857143" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="25.7833333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1542,32 +1557,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" ht="53" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1575,145 +1601,145 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="71.25" spans="1:6">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="88" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:4">
+    <row r="10" ht="18" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" ht="20" spans="1:6">
+    <row r="11" ht="18" spans="1:6">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="72" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="1:4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:4">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -1734,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1742,12 +1768,12 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="129.258928571429" customWidth="1"/>
+    <col min="4" max="4" width="129.258333333333" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1790,13 +1816,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1807,38 +1833,38 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" ht="18" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1850,21 +1876,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="47" spans="1:6">
+    <row r="7" ht="38.25" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1872,16 +1898,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1889,75 +1915,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +2000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -1982,13 +2008,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="16.8125" customWidth="1"/>
-    <col min="2" max="2" width="21.1339285714286" customWidth="1"/>
+    <col min="1" max="1" width="16.8166666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
     <col min="4" max="4" width="66.125" customWidth="1"/>
-    <col min="5" max="5" width="22.9107142857143" customWidth="1"/>
+    <col min="5" max="5" width="22.9083333333333" customWidth="1"/>
     <col min="6" max="6" width="35.375" customWidth="1"/>
     <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -1996,7 +2022,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2005,105 +2031,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="141" spans="3:7">
+    <row r="4" ht="99.75" spans="3:7">
       <c r="C4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" ht="53" spans="3:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="3:6">
       <c r="C6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" ht="141" spans="3:16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" ht="142.5" spans="3:16">
       <c r="C7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2124,7 +2150,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -411,10 +411,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -504,6 +504,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -512,6 +580,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -520,53 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,59 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -654,13 +654,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,73 +786,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,66 +828,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -829,12 +835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,39 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -905,17 +872,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,81 +906,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1028,46 +1028,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,19 +1076,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1465,15 +1465,15 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="50.3303571428571" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="2" max="2" width="61.125" customWidth="1"/>
+    <col min="3" max="3" width="50.4732142857143" customWidth="1"/>
     <col min="4" max="4" width="56.0178571428571" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="25.7857142857143" customWidth="1"/>
@@ -1643,7 +1643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="72" spans="1:4">
+    <row r="13" ht="58" spans="1:4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1683,50 +1683,49 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="20" spans="1:4">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="16" ht="20" spans="4:4">
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
-    <hyperlink ref="B19" r:id="rId2" display="http://39.100.131.79:8761"/>
-    <hyperlink ref="B20" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
+    <hyperlink ref="B22" r:id="rId2" display="http://39.100.131.79:8761"/>
+    <hyperlink ref="B23" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29920" windowHeight="22480"/>
+    <workbookView windowWidth="28060" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置清单（2023-06-16过期）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -87,13 +87,25 @@
     <t>MongoDB</t>
   </si>
   <si>
+    <t>/etc/mongo.conf</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>账户管理员</t>
+  </si>
+  <si>
+    <t>mongo系统管理员</t>
+  </si>
+  <si>
     <t>fit-eat：jxh</t>
   </si>
   <si>
     <t>fit-eat：jxh1988</t>
   </si>
   <si>
-    <t>readWrite</t>
+    <t>readWrite [fit-eat数据库管理员]</t>
   </si>
   <si>
     <t>Redis</t>
@@ -166,9 +178,6 @@
   </si>
   <si>
     <t>/etc/sysconfig/jenkins   日志地址：/var/log/jenkins/jenkins.log</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t>32207161082d4c44b704e34c30df454a</t>
@@ -412,9 +421,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -505,21 +514,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,106 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -654,19 +663,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,163 +837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,6 +862,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,48 +900,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,7 +924,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,152 +959,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1137,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1463,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1477,7 +1495,7 @@
     <col min="4" max="4" width="56.0178571428571" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="25.7857142857143" customWidth="1"/>
-    <col min="7" max="7" width="10.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="32.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1574,158 +1592,195 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="88" spans="1:6">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" ht="20" spans="1:4">
-      <c r="A10" t="s">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7"/>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="88" spans="1:6">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" ht="20" spans="1:6">
-      <c r="A11" t="s">
+      <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="20" spans="1:4">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" ht="20" spans="1:6">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" ht="58" spans="1:4">
-      <c r="A13" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="20" spans="1:4">
-      <c r="A14" t="s">
+    <row r="15" ht="58" spans="1:4">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="C15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="13" t="s">
+    </row>
+    <row r="16" ht="20" spans="1:4">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" ht="20" spans="4:4">
-      <c r="D16" s="12"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="18" ht="20" spans="4:4">
+      <c r="D18" s="15"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>51</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
-    <hyperlink ref="B22" r:id="rId2" display="http://39.100.131.79:8761"/>
-    <hyperlink ref="B23" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://github.com/micezhao/fit-eat.git"/>
+    <hyperlink ref="B24" r:id="rId2" display="http://39.100.131.79:8761"/>
+    <hyperlink ref="B25" r:id="rId3" display="http://39.100.131.79:8762" tooltip="http://39.100.131.79:8762"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1789,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1806,13 +1861,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1820,10 +1875,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1831,13 +1886,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1854,16 +1909,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1871,16 +1926,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1888,75 +1943,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2050,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2004,105 +2059,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/document/服务器配置清单.xlsx
+++ b/document/服务器配置清单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>服务器配置清单</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>MongoDB</t>
+  </si>
+  <si>
+    <t>39.100.131.79:27017</t>
   </si>
   <si>
     <t>/etc/mongo.conf</t>
@@ -420,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -520,6 +523,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -527,10 +538,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,21 +579,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,29 +624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -610,35 +631,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,13 +666,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +786,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,151 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,60 +865,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +895,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -954,129 +912,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1085,26 +1088,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1143,9 +1146,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1483,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1596,20 +1596,20 @@
         <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1624,36 +1624,36 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7"/>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="88" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1661,23 +1661,23 @@
     </row>
     <row r="12" ht="20" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" ht="20" spans="1:6">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1685,88 +1685,88 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="58" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="20" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="D17" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="20" spans="4:4">
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1844,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1861,13 +1861,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:4">
@@ -1875,10 +1875,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1886,13 +1886,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1909,16 +1909,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>891122</v>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>891122</v>
@@ -1943,75 +1943,75 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2050,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2059,105 +2059,105 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="141" spans="3:7">
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="53" spans="3:6">
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="141" spans="3:16">
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
